--- a/DATASET/ValoresExtremos.xlsx
+++ b/DATASET/ValoresExtremos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/mariaeugenia_ingaramo_dxc_com/Documents/EUGE/TRAINING/CODERHOUSE/Data Science II/TP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/mariaeugenia_ingaramo_dxc_com/Documents/EUGE/TRAINING/CODERHOUSE/Data Science II/TP/CODER-DataScienceII/DATASET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{2A52D183-9679-493E-AA6C-C2E5E481ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C95441-4645-4215-A202-8F49F4C364A1}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{2A52D183-9679-493E-AA6C-C2E5E481ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D62705A-29CE-42F1-AF52-4BEB3B755CA5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33207B0B-B0B1-4755-B9A1-A8CA3C8F6562}"/>
   </bookViews>
@@ -90,7 +90,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,18 +109,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,14 +126,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3075EA96-836D-4528-8C0D-8C78B2224B2A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -477,13 +481,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1">
@@ -494,16 +498,16 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1.2</v>
       </c>
     </row>
@@ -511,16 +515,16 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -528,16 +532,16 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>15</v>
       </c>
     </row>
@@ -545,16 +549,16 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.01</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.01</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -568,7 +572,7 @@
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
@@ -585,7 +589,7 @@
       <c r="C8" s="1">
         <v>400</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>50</v>
       </c>
       <c r="E8" s="1">
@@ -596,16 +600,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.99</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.01</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.99</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -613,16 +617,16 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2.8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.8</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>4</v>
       </c>
     </row>
@@ -630,16 +634,16 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1.5</v>
       </c>
     </row>
@@ -647,16 +651,16 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>14.5</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>15</v>
       </c>
     </row>

--- a/DATASET/ValoresExtremos.xlsx
+++ b/DATASET/ValoresExtremos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/mariaeugenia_ingaramo_dxc_com/Documents/EUGE/TRAINING/CODERHOUSE/Data Science II/TP/CODER-DataScienceII/DATASET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{2A52D183-9679-493E-AA6C-C2E5E481ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D62705A-29CE-42F1-AF52-4BEB3B755CA5}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{2A52D183-9679-493E-AA6C-C2E5E481ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A9B360-F4EE-483E-B58D-84245D0F58BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33207B0B-B0B1-4755-B9A1-A8CA3C8F6562}"/>
   </bookViews>
@@ -138,7 +138,98 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +240,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6153DDE-3FA3-4CF3-B9E7-1D7F6D6C150E}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" dataDxfId="0" dataCellStyle="Comma">
+  <autoFilter ref="A1:E12" xr:uid="{A6153DDE-3FA3-4CF3-B9E7-1D7F6D6C150E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D5C200FD-9C0D-4372-87DB-CC39BAB05F50}" name="caracteristica"/>
+    <tableColumn id="2" xr3:uid="{E20A229F-353A-4400-B308-6FDE92528055}" name="white_min" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{01378B45-E4B7-496D-AF7C-550D91F18AAB}" name="white_max" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{FEE64967-6CF8-4D11-BA66-001732C957AD}" name="red_min" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{C249994C-1E5C-4FD5-B5EA-EF22D8F20EBE}" name="red_max" dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,14 +555,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3075EA96-836D-4528-8C0D-8C78B2224B2A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -666,5 +774,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>